--- a/data/FOREX_5A_historical.xlsx
+++ b/data/FOREX_5A_historical.xlsx
@@ -7169,7 +7169,9 @@
       <c r="CD32" t="n">
         <v>1946.4</v>
       </c>
-      <c r="CE32" t="inlineStr"/>
+      <c r="CE32" t="n">
+        <v>2006.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -16644,7 +16646,9 @@
       <c r="CD77" t="n">
         <v>51.64</v>
       </c>
-      <c r="CE77" t="inlineStr"/>
+      <c r="CE77" t="n">
+        <v>52.61</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -19839,7 +19843,9 @@
       <c r="CD92" t="n">
         <v>72.1605</v>
       </c>
-      <c r="CE92" t="inlineStr"/>
+      <c r="CE92" t="n">
+        <v>99.86669999999999</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -23477,34 +23483,34 @@
         <v>69.3967</v>
       </c>
       <c r="BQ109" t="n">
-        <v>62.67</v>
+        <v>62.675</v>
       </c>
       <c r="BR109" t="n">
-        <v>77.70999999999999</v>
+        <v>77.71111111111109</v>
       </c>
       <c r="BS109" t="n">
         <v>75.81999999999999</v>
       </c>
       <c r="BT109" t="n">
-        <v>80.75</v>
+        <v>80.7519444444445</v>
       </c>
       <c r="BU109" t="n">
-        <v>85.06999999999999</v>
+        <v>85.0681</v>
       </c>
       <c r="BV109" t="n">
-        <v>86</v>
+        <v>86.0008</v>
       </c>
       <c r="BW109" t="n">
-        <v>86.31</v>
+        <v>86.30972222222221</v>
       </c>
       <c r="BX109" t="n">
-        <v>90.5</v>
+        <v>90.50166666666669</v>
       </c>
       <c r="BY109" t="n">
-        <v>102.31</v>
+        <v>102.3114</v>
       </c>
       <c r="BZ109" t="n">
-        <v>102.49</v>
+        <v>102.485833333333</v>
       </c>
       <c r="CA109" t="n">
         <v>103.231666666667</v>
@@ -25305,10 +25311,10 @@
         <v>14.0255405092674</v>
       </c>
       <c r="CD118" t="n">
-        <v>14.5965</v>
+        <v>14.6859483377709</v>
       </c>
       <c r="CE118" t="n">
-        <v>15.193</v>
+        <v>15.9054073613406</v>
       </c>
     </row>
     <row r="119">
@@ -28898,7 +28904,9 @@
       <c r="CD135" t="n">
         <v>2849.89</v>
       </c>
-      <c r="CE135" t="inlineStr"/>
+      <c r="CE135" t="n">
+        <v>2849.34</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -29716,7 +29724,9 @@
       <c r="CD139" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="CE139" t="inlineStr"/>
+      <c r="CE139" t="n">
+        <v>63.83</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -31737,7 +31747,9 @@
       <c r="CD148" t="n">
         <v>34.8245</v>
       </c>
-      <c r="CE148" t="inlineStr"/>
+      <c r="CE148" t="n">
+        <v>35.521</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -33654,7 +33666,9 @@
       <c r="CD157" t="n">
         <v>3.50877192982456</v>
       </c>
-      <c r="CE157" t="inlineStr"/>
+      <c r="CE157" t="n">
+        <v>3.50877192982456</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -38287,7 +38301,9 @@
       <c r="CD180" t="n">
         <v>8.0450522928399</v>
       </c>
-      <c r="CE180" t="inlineStr"/>
+      <c r="CE180" t="n">
+        <v>8.09716599190283</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -42884,7 +42900,9 @@
       <c r="CD201" t="n">
         <v>2.27324391907252</v>
       </c>
-      <c r="CE201" t="inlineStr"/>
+      <c r="CE201" t="n">
+        <v>2.28519195612431</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -44960,7 +44978,9 @@
       <c r="CD211" t="n">
         <v>42.34</v>
       </c>
-      <c r="CE211" t="inlineStr"/>
+      <c r="CE211" t="n">
+        <v>44.695</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -45742,7 +45762,9 @@
       <c r="CD215" t="n">
         <v>23131</v>
       </c>
-      <c r="CE215" t="inlineStr"/>
+      <c r="CE215" t="n">
+        <v>23145</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -46151,12 +46173,14 @@
         <v>214.89</v>
       </c>
       <c r="CC217" t="n">
-        <v>603.1935483870971</v>
+        <v>612</v>
       </c>
       <c r="CD217" t="n">
-        <v>811.916666666667</v>
-      </c>
-      <c r="CE217" t="inlineStr"/>
+        <v>669</v>
+      </c>
+      <c r="CE217" t="n">
+        <v>952</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -46560,7 +46584,9 @@
       <c r="CD219" t="n">
         <v>21.166</v>
       </c>
-      <c r="CE219" t="inlineStr"/>
+      <c r="CE219" t="n">
+        <v>16.6733125</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -46771,7 +46797,9 @@
       <c r="CD220" t="n">
         <v>81.78660000000001</v>
       </c>
-      <c r="CE220" t="inlineStr"/>
+      <c r="CE220" t="n">
+        <v>108.666</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
